--- a/logboek/Logboek-Max.xlsx
+++ b/logboek/Logboek-Max.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\!BarrocIT\ObesiCodeDocs\logboek\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - ROC West-Brabant\Periode_5\project\ObesiCodeDocs\logboek\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="21" documentId="FF4A47C9074763F29F69E9DC026F7ED2C905A274" xr6:coauthVersionLast="21" xr6:coauthVersionMax="21" xr10:uidLastSave="{C9C2DB94-CEC1-433F-A0A4-92B0D3E4670F}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -24,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="20">
-  <si>
-    <t xml:space="preserve">Project Fifa </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="25">
   <si>
     <t>Datum</t>
   </si>
@@ -48,6 +46,36 @@
   </si>
   <si>
     <t>Afspraken en opmerkingen</t>
+  </si>
+  <si>
+    <t>Iedereen heeft tijd besteed aan met het gebruiken van Github.</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>wo</t>
+  </si>
+  <si>
+    <t>do</t>
+  </si>
+  <si>
+    <t>vr</t>
+  </si>
+  <si>
+    <t>Week 2</t>
+  </si>
+  <si>
+    <t>ma</t>
+  </si>
+  <si>
+    <t>Week 3</t>
+  </si>
+  <si>
+    <t>Week 4</t>
+  </si>
+  <si>
+    <t>Week 5</t>
   </si>
   <si>
     <r>
@@ -60,47 +88,35 @@
         <rFont val="Verdana"/>
         <family val="2"/>
       </rPr>
-      <t>Noël van Bijnen</t>
+      <t>Max Bogaers</t>
     </r>
   </si>
   <si>
-    <t>Iedereen heeft tijd besteed aan met het gebruiken van Github.</t>
-  </si>
-  <si>
-    <t>Groep 10: EA-Sports-3-0</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>wo</t>
-  </si>
-  <si>
-    <t>do</t>
-  </si>
-  <si>
-    <t>vr</t>
-  </si>
-  <si>
-    <t>Week 2</t>
-  </si>
-  <si>
-    <t>ma</t>
-  </si>
-  <si>
-    <t>Week 3</t>
-  </si>
-  <si>
-    <t>Week 4</t>
-  </si>
-  <si>
-    <t>Week 5</t>
+    <t>Groep 4: ObesiCode</t>
+  </si>
+  <si>
+    <t>Project Barroc IT</t>
+  </si>
+  <si>
+    <t>school</t>
+  </si>
+  <si>
+    <t>github aangemaakt</t>
+  </si>
+  <si>
+    <t>documentatie gemaakt</t>
+  </si>
+  <si>
+    <t>aan documentatie gewerkt</t>
+  </si>
+  <si>
+    <t>githun opnieuw ingedeeld</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -475,11 +491,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,116 +505,137 @@
   <sheetData>
     <row r="1" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="N5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P5" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="G7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" t="s">
+        <v>21</v>
       </c>
       <c r="P7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="G8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="G12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="I13" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -617,61 +654,61 @@
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C23" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E23" s="4"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C27" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E27" s="4"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C31" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E31" s="4"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C34" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E34" s="4"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -690,76 +727,76 @@
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C37" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E37" s="4"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C40" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E40" s="4"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C43" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E43" s="4"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C46" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E46" s="4"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C49" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E49" s="4"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -778,76 +815,76 @@
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C52" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E52" s="4"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="B55" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C55" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E55" s="4"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="B58" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C58" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E58" s="4"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
       <c r="B61" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C61" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E61" s="4"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
       <c r="B64" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C64" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E64" s="4"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -866,76 +903,76 @@
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
       <c r="B67" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C67" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E67" s="4"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
       <c r="B70" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C70" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E70" s="4"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C73" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E73" s="4"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C76" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E76" s="4"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="B79" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C79" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E79" s="4"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">

--- a/logboek/Logboek-Max.xlsx
+++ b/logboek/Logboek-Max.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - ROC West-Brabant\Periode_5\project\ObesiCodeDocs\logboek\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="FF4A47C9074763F29F69E9DC026F7ED2C905A274" xr6:coauthVersionLast="21" xr6:coauthVersionMax="21" xr10:uidLastSave="{C9C2DB94-CEC1-433F-A0A4-92B0D3E4670F}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="FF4A47C9074763F29F69E9DC026F7ED2C905A274" xr6:coauthVersionLast="21" xr6:coauthVersionMax="21" xr10:uidLastSave="{B0DD22DD-23C7-4633-ADE6-7B86A9A0F2D5}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="28">
   <si>
     <t>Datum</t>
   </si>
@@ -111,6 +111,15 @@
   </si>
   <si>
     <t>githun opnieuw ingedeeld</t>
+  </si>
+  <si>
+    <t>interview vragen bedacht</t>
+  </si>
+  <si>
+    <t>thuis</t>
+  </si>
+  <si>
+    <t>maken planning</t>
   </si>
 </sst>
 </file>
@@ -495,7 +504,7 @@
   <dimension ref="A1:P81"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,6 +555,9 @@
       <c r="C7" t="s">
         <v>13</v>
       </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
       <c r="G7" t="s">
         <v>20</v>
       </c>
@@ -559,6 +571,9 @@
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>4</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
       </c>
       <c r="G8" t="s">
         <v>20</v>
@@ -585,6 +600,9 @@
       <c r="C12" t="s">
         <v>8</v>
       </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
       <c r="G12" t="s">
         <v>20</v>
       </c>
@@ -595,6 +613,9 @@
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>4</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
       </c>
       <c r="I13" t="s">
         <v>24</v>
@@ -608,10 +629,28 @@
       <c r="C15" t="s">
         <v>10</v>
       </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="G15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>4</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="G16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">

--- a/logboek/Logboek-Max.xlsx
+++ b/logboek/Logboek-Max.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - ROC West-Brabant\Periode_5\project\ObesiCodeDocs\logboek\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="FF4A47C9074763F29F69E9DC026F7ED2C905A274" xr6:coauthVersionLast="21" xr6:coauthVersionMax="21" xr10:uidLastSave="{B0DD22DD-23C7-4633-ADE6-7B86A9A0F2D5}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="FF4A47C9074763F29F69E9DC026F7ED2C905A274" xr6:coauthVersionLast="21" xr6:coauthVersionMax="21" xr10:uidLastSave="{9DD23C27-DA5F-421C-8BAE-3D1F6DF676CF}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="30">
   <si>
     <t>Datum</t>
   </si>
@@ -120,6 +120,12 @@
   </si>
   <si>
     <t>maken planning</t>
+  </si>
+  <si>
+    <t>MoSCoW maken</t>
+  </si>
+  <si>
+    <t>interview houden met finacieel directeur</t>
   </si>
 </sst>
 </file>
@@ -504,7 +510,7 @@
   <dimension ref="A1:P81"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -666,10 +672,22 @@
       <c r="C19" t="s">
         <v>11</v>
       </c>
+      <c r="G19" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>4</v>
+      </c>
+      <c r="G20" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">

--- a/logboek/Logboek-Max.xlsx
+++ b/logboek/Logboek-Max.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - ROC West-Brabant\Periode_5\project\ObesiCodeDocs\logboek\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="FF4A47C9074763F29F69E9DC026F7ED2C905A274" xr6:coauthVersionLast="21" xr6:coauthVersionMax="21" xr10:uidLastSave="{9DD23C27-DA5F-421C-8BAE-3D1F6DF676CF}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="103_{641BDCEC-DB50-4543-BAAC-813E5D2D2892}" xr6:coauthVersionLast="21" xr6:coauthVersionMax="21" xr10:uidLastSave="{BC464D14-891B-48B9-94A3-204F9AA1E867}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="39">
   <si>
     <t>Datum</t>
   </si>
@@ -126,6 +126,33 @@
   </si>
   <si>
     <t>interview houden met finacieel directeur</t>
+  </si>
+  <si>
+    <t>9:00-9;45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">school </t>
+  </si>
+  <si>
+    <t>vergaderen</t>
+  </si>
+  <si>
+    <t>9;45-10:00</t>
+  </si>
+  <si>
+    <t>verbeteren acceptatie test</t>
+  </si>
+  <si>
+    <t>10:00-11:30</t>
+  </si>
+  <si>
+    <t>aanmaken database</t>
+  </si>
+  <si>
+    <t>11:30-12;00</t>
+  </si>
+  <si>
+    <t>werken aan documentatie</t>
   </si>
 </sst>
 </file>
@@ -507,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P81"/>
+  <dimension ref="A1:P83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -761,289 +788,334 @@
       <c r="C34" t="s">
         <v>10</v>
       </c>
-      <c r="E34" s="4"/>
+      <c r="E34" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G34" t="s">
+        <v>31</v>
+      </c>
+      <c r="I34" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>12</v>
       </c>
+      <c r="E35" t="s">
+        <v>33</v>
+      </c>
+      <c r="G35" t="s">
+        <v>31</v>
+      </c>
+      <c r="I35" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
+      <c r="B36" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" t="s">
+        <v>35</v>
+      </c>
+      <c r="G36" t="s">
+        <v>31</v>
+      </c>
+      <c r="I36" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
       <c r="B37" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" t="s">
+        <v>37</v>
+      </c>
+      <c r="G37" t="s">
+        <v>31</v>
+      </c>
+      <c r="I37" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="3"/>
+      <c r="B39" t="s">
         <v>14</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C39" t="s">
         <v>13</v>
       </c>
-      <c r="E37" s="4"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>14</v>
-      </c>
+      <c r="E39" s="4"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="3"/>
       <c r="B40" t="s">
         <v>14</v>
       </c>
-      <c r="C40" t="s">
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="3"/>
+      <c r="B42" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" t="s">
         <v>8</v>
       </c>
-      <c r="E40" s="4"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>14</v>
-      </c>
+      <c r="E42" s="4"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="3"/>
       <c r="B43" t="s">
         <v>14</v>
       </c>
-      <c r="C43" t="s">
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="3"/>
+      <c r="B45" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" t="s">
         <v>9</v>
       </c>
-      <c r="E43" s="4"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>14</v>
-      </c>
+      <c r="E45" s="4"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="3"/>
       <c r="B46" t="s">
         <v>14</v>
       </c>
-      <c r="C46" t="s">
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="3"/>
+      <c r="B48" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" t="s">
         <v>10</v>
       </c>
-      <c r="E46" s="4"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>14</v>
-      </c>
+      <c r="E48" s="4"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="3"/>
       <c r="B49" t="s">
         <v>14</v>
       </c>
-      <c r="C49" t="s">
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="3"/>
+      <c r="B51" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" t="s">
         <v>11</v>
       </c>
-      <c r="E49" s="4"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
+      <c r="E51" s="4"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="5"/>
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="5"/>
-      <c r="K51" s="5"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="3"/>
-      <c r="B52" t="s">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="5"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="3"/>
+      <c r="B54" t="s">
         <v>15</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C54" t="s">
         <v>13</v>
       </c>
-      <c r="E52" s="4"/>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
-        <v>15</v>
-      </c>
+      <c r="E54" s="4"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="3"/>
       <c r="B55" t="s">
         <v>15</v>
       </c>
-      <c r="C55" t="s">
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="3"/>
+      <c r="B57" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57" t="s">
         <v>8</v>
       </c>
-      <c r="E55" s="4"/>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
-        <v>15</v>
-      </c>
+      <c r="E57" s="4"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="3"/>
       <c r="B58" t="s">
         <v>15</v>
       </c>
-      <c r="C58" t="s">
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="3"/>
+      <c r="B60" t="s">
+        <v>15</v>
+      </c>
+      <c r="C60" t="s">
         <v>9</v>
       </c>
-      <c r="E58" s="4"/>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
-        <v>15</v>
-      </c>
+      <c r="E60" s="4"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" s="3"/>
       <c r="B61" t="s">
         <v>15</v>
       </c>
-      <c r="C61" t="s">
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="3"/>
+      <c r="B63" t="s">
+        <v>15</v>
+      </c>
+      <c r="C63" t="s">
         <v>10</v>
       </c>
-      <c r="E61" s="4"/>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
-        <v>15</v>
-      </c>
+      <c r="E63" s="4"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="3"/>
       <c r="B64" t="s">
         <v>15</v>
       </c>
-      <c r="C64" t="s">
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" s="3"/>
+      <c r="B66" t="s">
+        <v>15</v>
+      </c>
+      <c r="C66" t="s">
         <v>11</v>
       </c>
-      <c r="E64" s="4"/>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
+      <c r="E66" s="4"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="5"/>
-      <c r="B66" s="5"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="5"/>
-      <c r="E66" s="5"/>
-      <c r="F66" s="5"/>
-      <c r="G66" s="5"/>
-      <c r="H66" s="5"/>
-      <c r="I66" s="5"/>
-      <c r="J66" s="5"/>
-      <c r="K66" s="5"/>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="3"/>
-      <c r="B67" t="s">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" s="5"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="5"/>
+      <c r="I68" s="5"/>
+      <c r="J68" s="5"/>
+      <c r="K68" s="5"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" s="3"/>
+      <c r="B69" t="s">
         <v>16</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C69" t="s">
         <v>13</v>
       </c>
-      <c r="E67" s="4"/>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
-        <v>16</v>
-      </c>
+      <c r="E69" s="4"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="3"/>
       <c r="B70" t="s">
         <v>16</v>
       </c>
-      <c r="C70" t="s">
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" s="3"/>
+      <c r="B72" t="s">
+        <v>16</v>
+      </c>
+      <c r="C72" t="s">
         <v>8</v>
       </c>
-      <c r="E70" s="4"/>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B71" t="s">
-        <v>16</v>
-      </c>
+      <c r="E72" s="4"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="3"/>
       <c r="B73" t="s">
         <v>16</v>
       </c>
-      <c r="C73" t="s">
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" s="3"/>
+      <c r="B75" t="s">
+        <v>16</v>
+      </c>
+      <c r="C75" t="s">
         <v>9</v>
       </c>
-      <c r="E73" s="4"/>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B74" t="s">
-        <v>16</v>
-      </c>
+      <c r="E75" s="4"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="3"/>
       <c r="B76" t="s">
         <v>16</v>
       </c>
-      <c r="C76" t="s">
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" s="3"/>
+      <c r="B78" t="s">
+        <v>16</v>
+      </c>
+      <c r="C78" t="s">
         <v>10</v>
       </c>
-      <c r="E76" s="4"/>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B77" t="s">
-        <v>16</v>
-      </c>
+      <c r="E78" s="4"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="3"/>
       <c r="B79" t="s">
         <v>16</v>
       </c>
-      <c r="C79" t="s">
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" s="3"/>
+      <c r="B81" t="s">
+        <v>16</v>
+      </c>
+      <c r="C81" t="s">
         <v>11</v>
       </c>
-      <c r="E79" s="4"/>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B80" t="s">
+      <c r="E81" s="4"/>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="5"/>
-      <c r="B81" s="5"/>
-      <c r="C81" s="5"/>
-      <c r="D81" s="5"/>
-      <c r="E81" s="5"/>
-      <c r="F81" s="5"/>
-      <c r="G81" s="5"/>
-      <c r="H81" s="5"/>
-      <c r="I81" s="5"/>
-      <c r="J81" s="5"/>
-      <c r="K81" s="5"/>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" s="5"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="5"/>
+      <c r="I83" s="5"/>
+      <c r="J83" s="5"/>
+      <c r="K83" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/logboek/Logboek-Max.xlsx
+++ b/logboek/Logboek-Max.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - ROC West-Brabant\Periode_5\project\ObesiCodeDocs\logboek\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="103_{641BDCEC-DB50-4543-BAAC-813E5D2D2892}" xr6:coauthVersionLast="21" xr6:coauthVersionMax="21" xr10:uidLastSave="{BC464D14-891B-48B9-94A3-204F9AA1E867}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="103_{641BDCEC-DB50-4543-BAAC-813E5D2D2892}" xr6:coauthVersionLast="21" xr6:coauthVersionMax="21" xr10:uidLastSave="{1BD5BB72-394F-4174-AFF9-31442CE10B9D}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="41">
   <si>
     <t>Datum</t>
   </si>
@@ -153,6 +153,12 @@
   </si>
   <si>
     <t>werken aan documentatie</t>
+  </si>
+  <si>
+    <t>9:00 - 12:00</t>
+  </si>
+  <si>
+    <t>maken inlog pagina</t>
   </si>
 </sst>
 </file>
@@ -536,8 +542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -861,7 +867,15 @@
       <c r="C39" t="s">
         <v>13</v>
       </c>
-      <c r="E39" s="4"/>
+      <c r="E39" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G39" t="s">
+        <v>20</v>
+      </c>
+      <c r="I39" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B40" t="s">

--- a/logboek/Logboek-Max.xlsx
+++ b/logboek/Logboek-Max.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - ROC West-Brabant\Periode_5\project\ObesiCodeDocs\logboek\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="103_{641BDCEC-DB50-4543-BAAC-813E5D2D2892}" xr6:coauthVersionLast="21" xr6:coauthVersionMax="21" xr10:uidLastSave="{1BD5BB72-394F-4174-AFF9-31442CE10B9D}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="103_{641BDCEC-DB50-4543-BAAC-813E5D2D2892}" xr6:coauthVersionLast="23" xr6:coauthVersionMax="23" xr10:uidLastSave="{9F33B4BA-1862-4B82-BF88-DF2A545E669B}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="48">
   <si>
     <t>Datum</t>
   </si>
@@ -76,6 +76,75 @@
   </si>
   <si>
     <t>Week 5</t>
+  </si>
+  <si>
+    <t>Groep 4: ObesiCode</t>
+  </si>
+  <si>
+    <t>Project Barroc IT</t>
+  </si>
+  <si>
+    <t>school</t>
+  </si>
+  <si>
+    <t>github aangemaakt</t>
+  </si>
+  <si>
+    <t>documentatie gemaakt</t>
+  </si>
+  <si>
+    <t>aan documentatie gewerkt</t>
+  </si>
+  <si>
+    <t>githun opnieuw ingedeeld</t>
+  </si>
+  <si>
+    <t>interview vragen bedacht</t>
+  </si>
+  <si>
+    <t>thuis</t>
+  </si>
+  <si>
+    <t>maken planning</t>
+  </si>
+  <si>
+    <t>MoSCoW maken</t>
+  </si>
+  <si>
+    <t>interview houden met finacieel directeur</t>
+  </si>
+  <si>
+    <t>9:00-9;45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">school </t>
+  </si>
+  <si>
+    <t>vergaderen</t>
+  </si>
+  <si>
+    <t>9;45-10:00</t>
+  </si>
+  <si>
+    <t>verbeteren acceptatie test</t>
+  </si>
+  <si>
+    <t>10:00-11:30</t>
+  </si>
+  <si>
+    <t>aanmaken database</t>
+  </si>
+  <si>
+    <t>11:30-12;00</t>
+  </si>
+  <si>
+    <t>werken aan documentatie</t>
+  </si>
+  <si>
+    <t>9:00 - 12:00</t>
+  </si>
+  <si>
+    <t>maken inlog pagina</t>
   </si>
   <si>
     <r>
@@ -85,87 +154,40 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Verdana"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t>Max Bogaers</t>
     </r>
   </si>
   <si>
-    <t>Groep 4: ObesiCode</t>
-  </si>
-  <si>
-    <t>Project Barroc IT</t>
-  </si>
-  <si>
-    <t>school</t>
-  </si>
-  <si>
-    <t>github aangemaakt</t>
-  </si>
-  <si>
-    <t>documentatie gemaakt</t>
-  </si>
-  <si>
-    <t>aan documentatie gewerkt</t>
-  </si>
-  <si>
-    <t>githun opnieuw ingedeeld</t>
-  </si>
-  <si>
-    <t>interview vragen bedacht</t>
-  </si>
-  <si>
-    <t>thuis</t>
-  </si>
-  <si>
-    <t>maken planning</t>
-  </si>
-  <si>
-    <t>MoSCoW maken</t>
-  </si>
-  <si>
-    <t>interview houden met finacieel directeur</t>
-  </si>
-  <si>
-    <t>9:00-9;45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">school </t>
-  </si>
-  <si>
-    <t>vergaderen</t>
-  </si>
-  <si>
-    <t>9;45-10:00</t>
-  </si>
-  <si>
-    <t>verbeteren acceptatie test</t>
-  </si>
-  <si>
-    <t>10:00-11:30</t>
-  </si>
-  <si>
-    <t>aanmaken database</t>
-  </si>
-  <si>
-    <t>11:30-12;00</t>
-  </si>
-  <si>
-    <t>werken aan documentatie</t>
-  </si>
-  <si>
-    <t>9:00 - 12:00</t>
-  </si>
-  <si>
-    <t>maken inlog pagina</t>
+    <t>9:00-9:45</t>
+  </si>
+  <si>
+    <t>School</t>
+  </si>
+  <si>
+    <t>Vergaderen</t>
+  </si>
+  <si>
+    <t>9:45-12:15</t>
+  </si>
+  <si>
+    <t>werken aan en leren van laravel</t>
+  </si>
+  <si>
+    <t>9:00-12:00</t>
+  </si>
+  <si>
+    <t>maken financial page en stylen login</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,14 +198,22 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Verdana"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Verdana"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
@@ -219,13 +249,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -246,7 +277,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
-    <a:clrScheme name="Kantoor">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -284,7 +315,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kantoor">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -390,7 +421,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kantoor">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -542,189 +573,190 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="N5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="P5" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" t="s">
+      <c r="A7" s="4"/>
+      <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <v>1</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I7" t="s">
+      <c r="P7" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="P7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E8">
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="2">
         <v>2</v>
       </c>
-      <c r="G8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="G12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" t="s">
+      <c r="C15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="2">
+        <v>3</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12">
+      <c r="E16" s="2">
         <v>2</v>
       </c>
-      <c r="G12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+      <c r="G16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="I13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" t="s">
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="G15" t="s">
-        <v>20</v>
-      </c>
-      <c r="I15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+      <c r="C19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="G16" t="s">
-        <v>26</v>
-      </c>
-      <c r="I16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s">
-        <v>20</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="G20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>4</v>
-      </c>
-      <c r="G20" t="s">
-        <v>20</v>
-      </c>
-      <c r="I20" t="s">
-        <v>29</v>
-      </c>
-    </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+      <c r="B21" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -742,108 +774,108 @@
       <c r="K22" s="5"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" t="s">
+      <c r="A23" s="4"/>
+      <c r="B23" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E23" s="4"/>
+      <c r="E23" s="6"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+      <c r="B24" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" t="s">
+      <c r="A27" s="4"/>
+      <c r="B27" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="4"/>
+      <c r="E27" s="6"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+      <c r="B28" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31" t="s">
+      <c r="A31" s="4"/>
+      <c r="B31" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E31" s="4"/>
+      <c r="E31" s="6"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
+      <c r="B32" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
-      <c r="B34" t="s">
+      <c r="A34" s="4"/>
+      <c r="B34" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="E34" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G34" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G34" t="s">
+      <c r="I34" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I34" t="s">
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
+      <c r="G35" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B36" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E35" t="s">
-        <v>33</v>
-      </c>
-      <c r="G35" t="s">
-        <v>31</v>
-      </c>
-      <c r="I35" t="s">
+      <c r="E36" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
+      <c r="G36" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B37" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E36" t="s">
-        <v>35</v>
-      </c>
-      <c r="G36" t="s">
-        <v>31</v>
-      </c>
-      <c r="I36" t="s">
+      <c r="E37" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>12</v>
-      </c>
-      <c r="E37" t="s">
+      <c r="G37" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I37" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="G37" t="s">
-        <v>31</v>
-      </c>
-      <c r="I37" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -860,85 +892,102 @@
       <c r="K38" s="5"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="3"/>
-      <c r="B39" t="s">
+      <c r="A39" s="4"/>
+      <c r="B39" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="E39" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I39" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G39" t="s">
-        <v>20</v>
-      </c>
-      <c r="I39" t="s">
-        <v>40</v>
-      </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
+      <c r="B40" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="3"/>
-      <c r="B42" t="s">
+      <c r="A42" s="4"/>
+      <c r="B42" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E42" s="4"/>
+      <c r="E42" s="6"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
+      <c r="B43" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="3"/>
-      <c r="B45" t="s">
+      <c r="A45" s="4"/>
+      <c r="B45" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E45" s="4"/>
+      <c r="E45" s="6"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
+      <c r="B46" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="3"/>
-      <c r="B48" t="s">
+      <c r="A48" s="4"/>
+      <c r="B48" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E48" s="4"/>
+      <c r="E48" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
+      <c r="B49" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="E49" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="3"/>
-      <c r="B51" t="s">
+      <c r="A51" s="4"/>
+      <c r="B51" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E51" s="4"/>
+      <c r="E51" s="6"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
+      <c r="B52" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -956,77 +1005,85 @@
       <c r="K53" s="5"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="3"/>
-      <c r="B54" t="s">
+      <c r="A54" s="4"/>
+      <c r="B54" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="4"/>
+      <c r="E54" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
+      <c r="B55" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="3"/>
-      <c r="B57" t="s">
+      <c r="A57" s="4"/>
+      <c r="B57" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E57" s="4"/>
+      <c r="E57" s="6"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
+      <c r="B58" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="3"/>
-      <c r="B60" t="s">
+      <c r="A60" s="4"/>
+      <c r="B60" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E60" s="4"/>
+      <c r="E60" s="6"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
+      <c r="B61" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="3"/>
-      <c r="B63" t="s">
+      <c r="A63" s="4"/>
+      <c r="B63" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E63" s="4"/>
+      <c r="E63" s="6"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
+      <c r="B64" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="3"/>
-      <c r="B66" t="s">
+      <c r="A66" s="4"/>
+      <c r="B66" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E66" s="4"/>
+      <c r="E66" s="6"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
+      <c r="B67" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1044,77 +1101,77 @@
       <c r="K68" s="5"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="3"/>
-      <c r="B69" t="s">
+      <c r="A69" s="4"/>
+      <c r="B69" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E69" s="4"/>
+      <c r="E69" s="6"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
+      <c r="B70" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="3"/>
-      <c r="B72" t="s">
+      <c r="A72" s="4"/>
+      <c r="B72" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E72" s="4"/>
+      <c r="E72" s="6"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B73" t="s">
+      <c r="B73" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="3"/>
-      <c r="B75" t="s">
+      <c r="A75" s="4"/>
+      <c r="B75" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E75" s="4"/>
+      <c r="E75" s="6"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B76" t="s">
+      <c r="B76" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="3"/>
-      <c r="B78" t="s">
+      <c r="A78" s="4"/>
+      <c r="B78" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E78" s="4"/>
+      <c r="E78" s="6"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B79" t="s">
+      <c r="B79" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="3"/>
-      <c r="B81" t="s">
+      <c r="A81" s="4"/>
+      <c r="B81" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E81" s="4"/>
+      <c r="E81" s="6"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B82" t="s">
+      <c r="B82" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/logboek/Logboek-Max.xlsx
+++ b/logboek/Logboek-Max.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - ROC West-Brabant\Periode_5\project\ObesiCodeDocs\logboek\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="103_{641BDCEC-DB50-4543-BAAC-813E5D2D2892}" xr6:coauthVersionLast="23" xr6:coauthVersionMax="23" xr10:uidLastSave="{9F33B4BA-1862-4B82-BF88-DF2A545E669B}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="103_{641BDCEC-DB50-4543-BAAC-813E5D2D2892}" xr6:coauthVersionLast="23" xr6:coauthVersionMax="23" xr10:uidLastSave="{C01726E5-2BAB-4174-ACED-41B36CCEC0AB}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="53">
   <si>
     <t>Datum</t>
   </si>
@@ -181,6 +181,21 @@
   </si>
   <si>
     <t>maken financial page en stylen login</t>
+  </si>
+  <si>
+    <t>niet ingevuld in verbant met doorscheuren pees</t>
+  </si>
+  <si>
+    <t xml:space="preserve">werken aan frontend + backend finance </t>
+  </si>
+  <si>
+    <t>9:00- 9:55</t>
+  </si>
+  <si>
+    <t>9:55-12:00</t>
+  </si>
+  <si>
+    <t>werken aan backend finance</t>
   </si>
 </sst>
 </file>
@@ -223,7 +238,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -233,6 +248,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -249,7 +270,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -257,6 +278,10 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="20" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -573,8 +598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="I54" sqref="I54"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="I82" sqref="I82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1035,12 +1060,36 @@
       <c r="C57" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E57" s="6"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="8"/>
+      <c r="J57" s="8"/>
+      <c r="K57" s="8"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B58" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="8"/>
+      <c r="K58" s="8"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E59" s="8"/>
+      <c r="F59" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="8"/>
+      <c r="K59" s="8"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
@@ -1050,12 +1099,34 @@
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E60" s="6"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="8"/>
+      <c r="J60" s="8"/>
+      <c r="K60" s="8"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B61" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="8"/>
+      <c r="J61" s="8"/>
+      <c r="K61" s="8"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="8"/>
+      <c r="J62" s="8"/>
+      <c r="K62" s="8"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
@@ -1065,12 +1136,34 @@
       <c r="C63" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E63" s="6"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="8"/>
+      <c r="J63" s="8"/>
+      <c r="K63" s="8"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B64" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="8"/>
+      <c r="J64" s="8"/>
+      <c r="K64" s="8"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="8"/>
+      <c r="I65" s="8"/>
+      <c r="J65" s="8"/>
+      <c r="K65" s="8"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
@@ -1080,12 +1173,25 @@
       <c r="C66" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E66" s="6"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="8"/>
+      <c r="I66" s="8"/>
+      <c r="J66" s="8"/>
+      <c r="K66" s="8"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B67" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c r="H67" s="8"/>
+      <c r="I67" s="8"/>
+      <c r="J67" s="8"/>
+      <c r="K67" s="8"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="5"/>
@@ -1108,12 +1214,34 @@
       <c r="C69" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E69" s="6"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c r="H69" s="8"/>
+      <c r="I69" s="8"/>
+      <c r="J69" s="8"/>
+      <c r="K69" s="8"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B70" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c r="H70" s="8"/>
+      <c r="I70" s="8"/>
+      <c r="J70" s="8"/>
+      <c r="K70" s="8"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c r="H71" s="8"/>
+      <c r="I71" s="8"/>
+      <c r="J71" s="8"/>
+      <c r="K71" s="8"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
@@ -1123,12 +1251,34 @@
       <c r="C72" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E72" s="6"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c r="H72" s="8"/>
+      <c r="I72" s="8"/>
+      <c r="J72" s="8"/>
+      <c r="K72" s="8"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B73" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c r="H73" s="8"/>
+      <c r="I73" s="8"/>
+      <c r="J73" s="8"/>
+      <c r="K73" s="8"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c r="H74" s="8"/>
+      <c r="I74" s="8"/>
+      <c r="J74" s="8"/>
+      <c r="K74" s="8"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
@@ -1153,7 +1303,15 @@
       <c r="C78" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E78" s="6"/>
+      <c r="E78" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I78" s="6" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B79" s="2" t="s">
@@ -1168,11 +1326,28 @@
       <c r="C81" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E81" s="6"/>
+      <c r="E81" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G81" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I81" s="10" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B82" s="2" t="s">
         <v>16</v>
+      </c>
+      <c r="E82" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G82" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I82" s="10" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">

--- a/logboek/Logboek-Max.xlsx
+++ b/logboek/Logboek-Max.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - ROC West-Brabant\Periode_5\project\ObesiCodeDocs\logboek\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="42" documentId="103_{641BDCEC-DB50-4543-BAAC-813E5D2D2892}" xr6:coauthVersionLast="23" xr6:coauthVersionMax="23" xr10:uidLastSave="{C01726E5-2BAB-4174-ACED-41B36CCEC0AB}"/>
+  <xr:revisionPtr revIDLastSave="56" documentId="103_{641BDCEC-DB50-4543-BAAC-813E5D2D2892}" xr6:coauthVersionLast="23" xr6:coauthVersionMax="23" xr10:uidLastSave="{2C670BFE-EC60-48BB-BE52-4855005DE164}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="57">
   <si>
     <t>Datum</t>
   </si>
@@ -196,6 +196,18 @@
   </si>
   <si>
     <t>werken aan backend finance</t>
+  </si>
+  <si>
+    <t>vakantie</t>
+  </si>
+  <si>
+    <t>14:00-16:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biebliotheek </t>
+  </si>
+  <si>
+    <t>vergaderen + werken aan website</t>
   </si>
 </sst>
 </file>
@@ -596,10 +608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P83"/>
+  <dimension ref="A1:P97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="I82" sqref="I82"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="E90" sqref="E90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1363,6 +1375,101 @@
       <c r="J83" s="5"/>
       <c r="K83" s="5"/>
     </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B84" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E84" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G84" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="I84" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B85" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B87" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C87" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E87" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G87" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I87" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B88" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C88" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E88" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G88" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I88" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B90" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C90" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B91" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B93" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B94" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B96" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B97" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
